--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ROHIT\Desktop\lovebabbardsaSheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE8C1811-996D-4149-8F07-0F74ED65C397}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64689FE2-6655-4C67-8C82-65B758F56851}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1855,7 +1855,7 @@
   <dimension ref="A1:C481"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -1943,7 +1943,7 @@
         <v>10</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="21">
@@ -1954,7 +1954,7 @@
         <v>11</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="21">
@@ -1965,7 +1965,7 @@
         <v>12</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="21">
@@ -1976,7 +1976,7 @@
         <v>13</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="21">
@@ -2020,7 +2020,7 @@
         <v>17</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="21">
@@ -2031,7 +2031,7 @@
         <v>18</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ROHIT\Desktop\lovebabbardsaSheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64689FE2-6655-4C67-8C82-65B758F56851}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{672D71E1-5FCB-469B-83BF-7579BE7328E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1854,8 +1854,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -1987,7 +1987,7 @@
         <v>14</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="21">
@@ -1998,7 +1998,7 @@
         <v>15</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="21">
@@ -2009,7 +2009,7 @@
         <v>16</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="21">
@@ -2042,7 +2042,7 @@
         <v>19</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="21">
@@ -2053,7 +2053,7 @@
         <v>20</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="21">
@@ -2075,7 +2075,7 @@
         <v>22</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="21">
@@ -2097,7 +2097,7 @@
         <v>24</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ROHIT\Desktop\lovebabbardsaSheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{672D71E1-5FCB-469B-83BF-7579BE7328E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAE3DE80-917D-4A97-96A4-ECA21282EBA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1854,8 +1854,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -2308,7 +2308,7 @@
         <v>43</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="21">
@@ -2319,7 +2319,7 @@
         <v>44</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="21">
@@ -2330,7 +2330,7 @@
         <v>45</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="21">
@@ -2341,7 +2341,7 @@
         <v>46</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="21">
@@ -2352,7 +2352,7 @@
         <v>47</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="21">
@@ -2363,7 +2363,7 @@
         <v>48</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="21">
@@ -2423,7 +2423,7 @@
         <v>54</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="21">
@@ -2434,7 +2434,7 @@
         <v>55</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="21">
@@ -2445,7 +2445,7 @@
         <v>56</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="21">
@@ -2467,7 +2467,7 @@
         <v>58</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="21">
@@ -2478,7 +2478,7 @@
         <v>59</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="21">
@@ -6823,7 +6823,7 @@
         <v>454</v>
       </c>
       <c r="C472" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="473" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ROHIT\Desktop\lovebabbardsaSheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAE3DE80-917D-4A97-96A4-ECA21282EBA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{562118A1-5926-4911-A776-7CEF4C43AC94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1854,8 +1854,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="A204" workbookViewId="0">
+      <selection activeCell="C214" sqref="C214"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -4096,7 +4096,7 @@
         <v>208</v>
       </c>
       <c r="C214" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="215" spans="1:3" ht="21">
@@ -4107,7 +4107,7 @@
         <v>209</v>
       </c>
       <c r="C215" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="216" spans="1:3" ht="21">
@@ -4118,7 +4118,7 @@
         <v>210</v>
       </c>
       <c r="C216" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="217" spans="1:3" ht="21">
@@ -4140,7 +4140,7 @@
         <v>212</v>
       </c>
       <c r="C218" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="219" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ROHIT\Desktop\lovebabbardsaSheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{562118A1-5926-4911-A776-7CEF4C43AC94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1E1E180-9D9C-42EF-8A21-7D4EC62A2402}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
+    <workbookView xWindow="3564" yWindow="2772" windowWidth="17280" windowHeight="8964" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1854,8 +1854,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A204" workbookViewId="0">
-      <selection activeCell="C214" sqref="C214"/>
+    <sheetView tabSelected="1" topLeftCell="A186" workbookViewId="0">
+      <selection activeCell="B188" sqref="B188"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ROHIT\Desktop\lovebabbardsaSheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1E1E180-9D9C-42EF-8A21-7D4EC62A2402}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76C67355-9A9C-4667-B959-B178B3B48FDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3564" yWindow="2772" windowWidth="17280" windowHeight="8964" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1854,8 +1854,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A186" workbookViewId="0">
-      <selection activeCell="B188" sqref="B188"/>
+    <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
+      <selection activeCell="C106" sqref="C106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -2901,7 +2901,7 @@
         <v>98</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="21">
@@ -2912,7 +2912,7 @@
         <v>99</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="21">
@@ -2923,7 +2923,7 @@
         <v>100</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="21">
@@ -2934,7 +2934,7 @@
         <v>101</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="21">
@@ -2945,7 +2945,7 @@
         <v>102</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="21">
@@ -3789,7 +3789,7 @@
         <v>180</v>
       </c>
       <c r="C185" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="186" spans="1:3" ht="21">
@@ -3800,7 +3800,7 @@
         <v>181</v>
       </c>
       <c r="C186" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="187" spans="1:3" ht="21">
@@ -3811,7 +3811,7 @@
         <v>182</v>
       </c>
       <c r="C187" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="188" spans="1:3" ht="21">
@@ -3822,7 +3822,7 @@
         <v>183</v>
       </c>
       <c r="C188" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="189" spans="1:3" ht="21">
@@ -4075,7 +4075,7 @@
         <v>206</v>
       </c>
       <c r="C211" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="212" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ROHIT\Desktop\lovebabbardsaSheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76C67355-9A9C-4667-B959-B178B3B48FDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67BC2840-1C61-4622-BAFE-FFE2025CF061}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1854,8 +1854,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
-      <selection activeCell="C106" sqref="C106"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -2174,7 +2174,7 @@
         <v>31</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="21">
@@ -2185,7 +2185,7 @@
         <v>32</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="21">
@@ -2196,7 +2196,7 @@
         <v>33</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="21">
@@ -2207,7 +2207,7 @@
         <v>34</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="21">
@@ -2218,7 +2218,7 @@
         <v>35</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="21">
@@ -2273,7 +2273,7 @@
         <v>40</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="21">
@@ -2284,7 +2284,7 @@
         <v>41</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ROHIT\Desktop\lovebabbardsaSheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67BC2840-1C61-4622-BAFE-FFE2025CF061}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6B4DBC7-7B0B-4E60-88B2-8C408A40ACB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1854,8 +1854,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView tabSelected="1" topLeftCell="A131" workbookViewId="0">
+      <selection activeCell="C143" sqref="C143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -3301,7 +3301,7 @@
         <v>135</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="140" spans="1:3" ht="21">
@@ -3312,7 +3312,7 @@
         <v>136</v>
       </c>
       <c r="C140" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="141" spans="1:3" ht="21">
@@ -3323,7 +3323,7 @@
         <v>137</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="142" spans="1:3" ht="21">
@@ -3334,7 +3334,7 @@
         <v>138</v>
       </c>
       <c r="C142" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="143" spans="1:3" ht="21">
@@ -3345,7 +3345,7 @@
         <v>139</v>
       </c>
       <c r="C143" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="144" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ROHIT\Desktop\lovebabbardsaSheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6B4DBC7-7B0B-4E60-88B2-8C408A40ACB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D0BC2A0-7EA6-4843-B501-0C2BC0553DC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1854,8 +1854,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A131" workbookViewId="0">
-      <selection activeCell="C143" sqref="C143"/>
+    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
+      <selection activeCell="C148" sqref="C148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -3356,7 +3356,7 @@
         <v>140</v>
       </c>
       <c r="C144" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="145" spans="1:3" ht="21">
@@ -3367,7 +3367,7 @@
         <v>141</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="146" spans="1:3" ht="21">
@@ -3378,7 +3378,7 @@
         <v>142</v>
       </c>
       <c r="C146" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="147" spans="1:3" ht="21">
@@ -3389,7 +3389,7 @@
         <v>143</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="148" spans="1:3" ht="21">
@@ -3400,7 +3400,7 @@
         <v>144</v>
       </c>
       <c r="C148" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="149" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ROHIT\Desktop\lovebabbardsaSheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D0BC2A0-7EA6-4843-B501-0C2BC0553DC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{938257A7-5931-4905-9D5F-45BE664F9FC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1854,8 +1854,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
-      <selection activeCell="C148" sqref="C148"/>
+    <sheetView tabSelected="1" topLeftCell="A225" workbookViewId="0">
+      <selection activeCell="C238" sqref="C238"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -4346,7 +4346,7 @@
         <v>231</v>
       </c>
       <c r="C238" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="239" spans="1:3" ht="21">
@@ -4357,7 +4357,7 @@
         <v>232</v>
       </c>
       <c r="C239" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="240" spans="1:3" ht="21">
@@ -4379,7 +4379,7 @@
         <v>234</v>
       </c>
       <c r="C241" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="242" spans="1:3" ht="21">
@@ -6911,7 +6911,7 @@
         <v>462</v>
       </c>
       <c r="C480" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="481" spans="1:3" ht="21">
@@ -6922,7 +6922,7 @@
         <v>463</v>
       </c>
       <c r="C481" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
   </sheetData>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ROHIT\Desktop\lovebabbardsaSheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{938257A7-5931-4905-9D5F-45BE664F9FC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B5BD0A2-4FE5-4BB4-8564-FE8781BE3468}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1854,8 +1854,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A225" workbookViewId="0">
-      <selection activeCell="C238" sqref="C238"/>
+    <sheetView tabSelected="1" topLeftCell="A274" workbookViewId="0">
+      <selection activeCell="C275" sqref="C275"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -3910,7 +3910,7 @@
         <v>191</v>
       </c>
       <c r="C196" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="197" spans="1:3" ht="21">
@@ -3921,7 +3921,7 @@
         <v>192</v>
       </c>
       <c r="C197" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="198" spans="1:3" ht="21">
@@ -3932,7 +3932,7 @@
         <v>193</v>
       </c>
       <c r="C198" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="199" spans="1:3" ht="21">
@@ -3943,7 +3943,7 @@
         <v>194</v>
       </c>
       <c r="C199" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="200" spans="1:3" ht="21">
@@ -4739,7 +4739,7 @@
         <v>266</v>
       </c>
       <c r="C275" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="276" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ROHIT\Desktop\lovebabbardsaSheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B5BD0A2-4FE5-4BB4-8564-FE8781BE3468}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81F1F80D-30AA-445D-BBAF-6532785EBDA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1844,7 +1844,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1854,8 +1854,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A274" workbookViewId="0">
-      <selection activeCell="C275" sqref="C275"/>
+    <sheetView tabSelected="1" topLeftCell="A355" workbookViewId="0">
+      <selection activeCell="C358" sqref="C358"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -5588,7 +5588,7 @@
         <v>344</v>
       </c>
       <c r="C356" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="357" spans="1:3" ht="21">
@@ -5599,7 +5599,7 @@
         <v>345</v>
       </c>
       <c r="C357" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="358" spans="1:3" ht="21">
@@ -5610,7 +5610,7 @@
         <v>346</v>
       </c>
       <c r="C358" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="359" spans="1:3" ht="21">
@@ -5643,7 +5643,7 @@
         <v>349</v>
       </c>
       <c r="C361" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="362" spans="1:3" ht="21">
@@ -5676,7 +5676,7 @@
         <v>352</v>
       </c>
       <c r="C364" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="365" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ROHIT\Desktop\lovebabbardsaSheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81F1F80D-30AA-445D-BBAF-6532785EBDA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F8E5517-36A9-49BF-8E83-33B960631435}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1854,8 +1854,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A355" workbookViewId="0">
-      <selection activeCell="C358" sqref="C358"/>
+    <sheetView tabSelected="1" topLeftCell="A368" workbookViewId="0">
+      <selection activeCell="C371" sqref="C371"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -5753,7 +5753,7 @@
         <v>359</v>
       </c>
       <c r="C371" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="372" spans="1:3" ht="21">
@@ -5775,7 +5775,7 @@
         <v>361</v>
       </c>
       <c r="C373" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="374" spans="1:3" ht="21">
@@ -5786,7 +5786,7 @@
         <v>362</v>
       </c>
       <c r="C374" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="375" spans="1:3" ht="21">
@@ -5797,7 +5797,7 @@
         <v>363</v>
       </c>
       <c r="C375" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="376" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ROHIT\Desktop\lovebabbardsaSheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F8E5517-36A9-49BF-8E83-33B960631435}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46AE5875-A2E3-4103-BDA6-F0E4D50D7737}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1854,8 +1854,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A368" workbookViewId="0">
-      <selection activeCell="C371" sqref="C371"/>
+    <sheetView tabSelected="1" topLeftCell="A199" workbookViewId="0">
+      <selection activeCell="C210" sqref="C210"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -4020,7 +4020,7 @@
         <v>201</v>
       </c>
       <c r="C206" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="207" spans="1:3" ht="21">
@@ -4031,7 +4031,7 @@
         <v>202</v>
       </c>
       <c r="C207" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="208" spans="1:3" ht="21">
@@ -4042,7 +4042,7 @@
         <v>203</v>
       </c>
       <c r="C208" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="209" spans="1:3" ht="21">
@@ -4053,7 +4053,7 @@
         <v>204</v>
       </c>
       <c r="C209" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="210" spans="1:3" ht="21">
@@ -4064,7 +4064,7 @@
         <v>205</v>
       </c>
       <c r="C210" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="211" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ROHIT\Desktop\lovebabbardsaSheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46AE5875-A2E3-4103-BDA6-F0E4D50D7737}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{254C460E-FA85-414C-8250-CB183BB2D5D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1854,8 +1854,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A199" workbookViewId="0">
-      <selection activeCell="C210" sqref="C210"/>
+    <sheetView tabSelected="1" topLeftCell="A429" workbookViewId="0">
+      <selection activeCell="C429" sqref="C429"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -6363,7 +6363,7 @@
         <v>412</v>
       </c>
       <c r="C429" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="430" spans="1:3" ht="21">
@@ -6374,7 +6374,7 @@
         <v>413</v>
       </c>
       <c r="C430" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="431" spans="1:3" ht="21">
@@ -6385,7 +6385,7 @@
         <v>414</v>
       </c>
       <c r="C431" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="432" spans="1:3" ht="21">
@@ -6396,7 +6396,7 @@
         <v>415</v>
       </c>
       <c r="C432" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="433" spans="1:3" ht="21">
@@ -6407,7 +6407,7 @@
         <v>416</v>
       </c>
       <c r="C433" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="434" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ROHIT\Desktop\lovebabbardsaSheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{254C460E-FA85-414C-8250-CB183BB2D5D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2590D437-C3F8-4F00-8D46-E990E2C3FC7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1854,8 +1854,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A429" workbookViewId="0">
-      <selection activeCell="C429" sqref="C429"/>
+    <sheetView tabSelected="1" topLeftCell="C396" workbookViewId="0">
+      <selection activeCell="C406" sqref="C406"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -6124,7 +6124,7 @@
         <v>391</v>
       </c>
       <c r="C406" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="407" spans="1:3" ht="21">
@@ -6135,7 +6135,7 @@
         <v>392</v>
       </c>
       <c r="C407" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="408" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ROHIT\Desktop\lovebabbardsaSheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2590D437-C3F8-4F00-8D46-E990E2C3FC7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B54A525-655C-4DB3-B70C-734C42C6AF51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1854,8 +1854,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C396" workbookViewId="0">
-      <selection activeCell="C406" sqref="C406"/>
+    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="C67" sqref="C67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -2544,7 +2544,7 @@
         <v>65</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="21">
@@ -2566,7 +2566,7 @@
         <v>67</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="21">
@@ -2588,7 +2588,7 @@
         <v>69</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ROHIT\Desktop\lovebabbardsaSheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B54A525-655C-4DB3-B70C-734C42C6AF51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB1108F5-7A6E-4F42-A5BE-3F9C7DE7D189}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1854,8 +1854,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="C67" sqref="C67"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="C98" sqref="C98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -2841,7 +2841,7 @@
         <v>92</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="21">
@@ -2852,7 +2852,7 @@
         <v>93</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="21">
@@ -2863,7 +2863,7 @@
         <v>94</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="21">
@@ -2874,7 +2874,7 @@
         <v>95</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="21">
@@ -2885,7 +2885,7 @@
         <v>96</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ROHIT\Desktop\lovebabbardsaSheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB1108F5-7A6E-4F42-A5BE-3F9C7DE7D189}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14F762E7-B631-4CA1-9E62-A1552A5C6CF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1854,8 +1854,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="C98" sqref="C98"/>
+    <sheetView tabSelected="1" topLeftCell="A449" workbookViewId="0">
+      <selection activeCell="C459" sqref="C459"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -6682,7 +6682,7 @@
         <v>441</v>
       </c>
       <c r="C458" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="459" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ROHIT\Desktop\lovebabbardsaSheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14F762E7-B631-4CA1-9E62-A1552A5C6CF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D96E0FE3-2C89-49A9-8F62-6721EA5D7CFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1854,8 +1854,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A449" workbookViewId="0">
-      <selection activeCell="C459" sqref="C459"/>
+    <sheetView tabSelected="1" topLeftCell="A469" workbookViewId="0">
+      <selection activeCell="B479" sqref="B479"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ROHIT\Desktop\lovebabbardsaSheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D96E0FE3-2C89-49A9-8F62-6721EA5D7CFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A326B8B9-F481-4C68-B538-4CD0C8C25749}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1854,8 +1854,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A469" workbookViewId="0">
-      <selection activeCell="B479" sqref="B479"/>
+    <sheetView tabSelected="1" topLeftCell="A258" workbookViewId="0">
+      <selection activeCell="C272" sqref="C272"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -4687,7 +4687,7 @@
         <v>262</v>
       </c>
       <c r="C269" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="270" spans="1:3" ht="21">
@@ -4698,7 +4698,7 @@
         <v>263</v>
       </c>
       <c r="C270" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="271" spans="1:3" ht="21">
@@ -4709,7 +4709,7 @@
         <v>87</v>
       </c>
       <c r="C271" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="272" spans="1:3" ht="21">
@@ -4720,7 +4720,7 @@
         <v>264</v>
       </c>
       <c r="C272" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="273" spans="1:3" ht="21">
@@ -5797,7 +5797,7 @@
         <v>363</v>
       </c>
       <c r="C375" s="4" t="s">
-        <v>465</v>
+        <v>4</v>
       </c>
     </row>
     <row r="376" spans="1:3" ht="21">
@@ -6834,7 +6834,7 @@
         <v>455</v>
       </c>
       <c r="C473" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="474" spans="1:3" ht="21">
@@ -6845,7 +6845,7 @@
         <v>456</v>
       </c>
       <c r="C474" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="475" spans="1:3" ht="21">
@@ -6856,7 +6856,7 @@
         <v>457</v>
       </c>
       <c r="C475" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="476" spans="1:3" ht="21">
@@ -6867,7 +6867,7 @@
         <v>458</v>
       </c>
       <c r="C476" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="477" spans="1:3" ht="21">
@@ -6878,7 +6878,7 @@
         <v>459</v>
       </c>
       <c r="C477" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="478" spans="1:3" ht="21">
@@ -6889,7 +6889,7 @@
         <v>460</v>
       </c>
       <c r="C478" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="479" spans="1:3" ht="21">
@@ -6900,7 +6900,7 @@
         <v>461</v>
       </c>
       <c r="C479" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="480" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ROHIT\Desktop\lovebabbardsaSheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A326B8B9-F481-4C68-B538-4CD0C8C25749}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DF7DCA3-FA50-4E02-9902-E40917CBC416}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1854,8 +1854,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A258" workbookViewId="0">
-      <selection activeCell="C272" sqref="C272"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -2152,7 +2152,7 @@
         <v>29</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="21">
@@ -2956,7 +2956,7 @@
         <v>103</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="21">
@@ -2967,7 +2967,7 @@
         <v>104</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="21">
@@ -2978,7 +2978,7 @@
         <v>105</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="21">
@@ -2989,7 +2989,7 @@
         <v>106</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="21">
@@ -4794,7 +4794,7 @@
         <v>271</v>
       </c>
       <c r="C280" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="281" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ROHIT\Desktop\lovebabbardsaSheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DF7DCA3-FA50-4E02-9902-E40917CBC416}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B74B518-8643-4AEC-927D-2CB0F9063C0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1855,7 +1855,7 @@
   <dimension ref="A1:C481"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -2086,7 +2086,7 @@
         <v>23</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="21">
@@ -2108,7 +2108,7 @@
         <v>25</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="21">
@@ -2119,7 +2119,7 @@
         <v>26</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="21">
@@ -2130,7 +2130,7 @@
         <v>27</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="21">
@@ -2141,7 +2141,7 @@
         <v>28</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ROHIT\Desktop\lovebabbardsaSheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B74B518-8643-4AEC-927D-2CB0F9063C0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35330E61-C9BA-4E8F-88D6-FF0C588AACC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1854,8 +1854,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" topLeftCell="A328" workbookViewId="0">
+      <selection activeCell="C329" sqref="C329"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -5308,7 +5308,7 @@
         <v>318</v>
       </c>
       <c r="C328" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="329" spans="1:3" ht="21">
@@ -5319,7 +5319,7 @@
         <v>319</v>
       </c>
       <c r="C329" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="330" spans="1:3" ht="21">
@@ -5330,7 +5330,7 @@
         <v>320</v>
       </c>
       <c r="C330" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="331" spans="1:3" ht="21">
@@ -5341,7 +5341,7 @@
         <v>321</v>
       </c>
       <c r="C331" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="332" spans="1:3" ht="21">
@@ -5352,7 +5352,7 @@
         <v>322</v>
       </c>
       <c r="C332" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="333" spans="1:3" ht="21">
@@ -5363,7 +5363,7 @@
         <v>323</v>
       </c>
       <c r="C333" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="334" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ROHIT\Desktop\lovebabbardsaSheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35330E61-C9BA-4E8F-88D6-FF0C588AACC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{242981EA-D21A-4992-B45B-4F25F65B4CEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1352" uniqueCount="466">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1349" uniqueCount="466">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1854,8 +1854,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A328" workbookViewId="0">
-      <selection activeCell="C329" sqref="C329"/>
+    <sheetView tabSelected="1" topLeftCell="A278" workbookViewId="0">
+      <selection activeCell="C281" sqref="C281"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -4783,7 +4783,7 @@
         <v>270</v>
       </c>
       <c r="C279" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="280" spans="1:3" ht="21">
@@ -4805,7 +4805,7 @@
         <v>272</v>
       </c>
       <c r="C281" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="282" spans="1:3" ht="21">
@@ -4882,7 +4882,7 @@
         <v>279</v>
       </c>
       <c r="C288" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="289" spans="1:3" ht="21">
@@ -4893,7 +4893,7 @@
         <v>280</v>
       </c>
       <c r="C289" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="290" spans="1:3" ht="21">
@@ -5906,9 +5906,7 @@
       <c r="B385" s="6" t="s">
         <v>373</v>
       </c>
-      <c r="C385" s="4" t="s">
-        <v>4</v>
-      </c>
+      <c r="C385" s="4"/>
     </row>
     <row r="386" spans="1:3" ht="21">
       <c r="A386" s="8" t="s">
@@ -5928,9 +5926,7 @@
       <c r="B387" s="6" t="s">
         <v>375</v>
       </c>
-      <c r="C387" s="4" t="s">
-        <v>4</v>
-      </c>
+      <c r="C387" s="4"/>
     </row>
     <row r="388" spans="1:3" ht="21">
       <c r="A388" s="8" t="s">
@@ -5939,9 +5935,7 @@
       <c r="B388" s="6" t="s">
         <v>376</v>
       </c>
-      <c r="C388" s="4" t="s">
-        <v>4</v>
-      </c>
+      <c r="C388" s="4"/>
     </row>
     <row r="389" spans="1:3" ht="21">
       <c r="A389" s="8" t="s">
@@ -5951,7 +5945,7 @@
         <v>377</v>
       </c>
       <c r="C389" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="390" spans="1:3" ht="21">
@@ -5962,7 +5956,7 @@
         <v>377</v>
       </c>
       <c r="C390" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="391" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ROHIT\Desktop\lovebabbardsaSheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{242981EA-D21A-4992-B45B-4F25F65B4CEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB0E4F67-90FE-4C8C-9FFA-A30C03AD87CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1349" uniqueCount="466">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1348" uniqueCount="466">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1854,8 +1854,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A278" workbookViewId="0">
-      <selection activeCell="C281" sqref="C281"/>
+    <sheetView tabSelected="1" topLeftCell="A281" workbookViewId="0">
+      <selection activeCell="C289" sqref="C289"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -4892,9 +4892,7 @@
       <c r="B289" s="6" t="s">
         <v>280</v>
       </c>
-      <c r="C289" s="4" t="s">
-        <v>465</v>
-      </c>
+      <c r="C289" s="4"/>
     </row>
     <row r="290" spans="1:3" ht="21">
       <c r="A290" s="5" t="s">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ROHIT\Desktop\lovebabbardsaSheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB0E4F67-90FE-4C8C-9FFA-A30C03AD87CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9413610-279A-4DAA-B742-E222C230B8CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1854,8 +1854,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A281" workbookViewId="0">
-      <selection activeCell="C289" sqref="C289"/>
+    <sheetView tabSelected="1" topLeftCell="A313" workbookViewId="0">
+      <selection activeCell="B322" sqref="B322"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ROHIT\Desktop\lovebabbardsaSheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9413610-279A-4DAA-B742-E222C230B8CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A209CFBF-98E7-4917-B176-1B8ADA0F3962}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1854,8 +1854,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A313" workbookViewId="0">
-      <selection activeCell="B322" sqref="B322"/>
+    <sheetView tabSelected="1" topLeftCell="A157" workbookViewId="0">
+      <selection activeCell="C170" sqref="C170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -3642,7 +3642,7 @@
         <v>166</v>
       </c>
       <c r="C170" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="171" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ROHIT\Desktop\lovebabbardsaSheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A209CFBF-98E7-4917-B176-1B8ADA0F3962}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3412FB4A-E0D2-4276-9243-3AE71DAED618}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1855,7 +1855,7 @@
   <dimension ref="A1:C481"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A157" workbookViewId="0">
-      <selection activeCell="C170" sqref="C170"/>
+      <selection activeCell="C172" sqref="C172"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -3664,7 +3664,7 @@
         <v>168</v>
       </c>
       <c r="C172" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="173" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ROHIT\Desktop\lovebabbardsaSheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3412FB4A-E0D2-4276-9243-3AE71DAED618}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46D5D507-E347-4194-ACA2-3ED80FDB9FA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1854,8 +1854,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A157" workbookViewId="0">
-      <selection activeCell="C172" sqref="C172"/>
+    <sheetView tabSelected="1" topLeftCell="A161" workbookViewId="0">
+      <selection activeCell="C174" sqref="C174"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -3609,7 +3609,7 @@
         <v>163</v>
       </c>
       <c r="C167" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="168" spans="1:3" ht="21">
@@ -3653,7 +3653,7 @@
         <v>167</v>
       </c>
       <c r="C171" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="172" spans="1:3" ht="21">
@@ -3675,7 +3675,7 @@
         <v>169</v>
       </c>
       <c r="C173" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="174" spans="1:3" ht="21">
@@ -3686,7 +3686,7 @@
         <v>170</v>
       </c>
       <c r="C174" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="176" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ROHIT\Desktop\lovebabbardsaSheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46D5D507-E347-4194-ACA2-3ED80FDB9FA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38FDCDF6-C805-40E8-B998-4A21F7C9BDAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1854,8 +1854,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A161" workbookViewId="0">
-      <selection activeCell="C174" sqref="C174"/>
+    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
+      <selection activeCell="C76" sqref="C76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -2632,7 +2632,7 @@
         <v>73</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="21">
@@ -2643,7 +2643,7 @@
         <v>74</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ROHIT\Desktop\lovebabbardsaSheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38FDCDF6-C805-40E8-B998-4A21F7C9BDAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B564F967-6A6D-4189-ACD0-1BC5D2ECCD3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1854,8 +1854,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
-      <selection activeCell="C76" sqref="C76"/>
+    <sheetView tabSelected="1" topLeftCell="A102" workbookViewId="0">
+      <selection activeCell="C118" sqref="C118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -3044,7 +3044,7 @@
         <v>111</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="21">
@@ -3055,7 +3055,7 @@
         <v>112</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="21">
@@ -3066,7 +3066,7 @@
         <v>113</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="21">
@@ -3077,7 +3077,7 @@
         <v>114</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="21">
@@ -3088,7 +3088,7 @@
         <v>115</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ROHIT\Desktop\lovebabbardsaSheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B564F967-6A6D-4189-ACD0-1BC5D2ECCD3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6F2F613-2EF6-4FBB-8B1D-D2FF4CBA5641}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1854,8 +1854,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A102" workbookViewId="0">
-      <selection activeCell="C118" sqref="C118"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -2374,7 +2374,7 @@
         <v>49</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="21">
@@ -2385,7 +2385,7 @@
         <v>50</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="21">
@@ -2396,7 +2396,7 @@
         <v>51</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="21">
@@ -2407,7 +2407,7 @@
         <v>52</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ROHIT\Desktop\lovebabbardsaSheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6F2F613-2EF6-4FBB-8B1D-D2FF4CBA5641}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97980689-306D-4A95-8890-B606743128C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1348" uniqueCount="466">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1349" uniqueCount="466">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1854,8 +1854,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="C50" sqref="C50"/>
+    <sheetView tabSelected="1" topLeftCell="A275" workbookViewId="0">
+      <selection activeCell="C284" sqref="C284"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -4838,7 +4838,7 @@
         <v>275</v>
       </c>
       <c r="C284" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="285" spans="1:3" ht="21">
@@ -4849,7 +4849,7 @@
         <v>276</v>
       </c>
       <c r="C285" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="286" spans="1:3" ht="21">
@@ -4860,7 +4860,7 @@
         <v>277</v>
       </c>
       <c r="C286" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="287" spans="1:3" ht="21">
@@ -4871,7 +4871,7 @@
         <v>278</v>
       </c>
       <c r="C287" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="288" spans="1:3" ht="21">
@@ -4892,7 +4892,9 @@
       <c r="B289" s="6" t="s">
         <v>280</v>
       </c>
-      <c r="C289" s="4"/>
+      <c r="C289" s="4" t="s">
+        <v>465</v>
+      </c>
     </row>
     <row r="290" spans="1:3" ht="21">
       <c r="A290" s="5" t="s">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ROHIT\Desktop\lovebabbardsaSheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97980689-306D-4A95-8890-B606743128C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAFAA6D7-D3D5-40FB-B613-B5B98AC869AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1854,8 +1854,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A275" workbookViewId="0">
-      <selection activeCell="C284" sqref="C284"/>
+    <sheetView tabSelected="1" topLeftCell="A312" workbookViewId="0">
+      <selection activeCell="B321" sqref="B321"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -5198,7 +5198,7 @@
         <v>308</v>
       </c>
       <c r="C318" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="319" spans="1:3" ht="21">
@@ -5209,7 +5209,7 @@
         <v>309</v>
       </c>
       <c r="C319" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="320" spans="1:3" ht="21">
@@ -5220,7 +5220,7 @@
         <v>310</v>
       </c>
       <c r="C320" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="321" spans="1:3" ht="21">
@@ -5231,7 +5231,7 @@
         <v>311</v>
       </c>
       <c r="C321" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="322" spans="1:3" ht="21">
@@ -5242,7 +5242,7 @@
         <v>312</v>
       </c>
       <c r="C322" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="323" spans="1:3" ht="21">
@@ -5253,7 +5253,7 @@
         <v>313</v>
       </c>
       <c r="C323" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="324" spans="1:3" ht="21">
@@ -7215,158 +7215,158 @@
     <hyperlink ref="B318" r:id="rId292" xr:uid="{52651FAF-F3DC-E949-8AF8-998B9724B7D1}"/>
     <hyperlink ref="B319" r:id="rId293" xr:uid="{91C6CCEF-3FF7-2C42-B5A0-8F4A403ED198}"/>
     <hyperlink ref="B320" r:id="rId294" xr:uid="{15C8AF08-1A79-F949-9BE7-DD240CBD9861}"/>
-    <hyperlink ref="B321" r:id="rId295" xr:uid="{1904F984-5B22-8D46-BC33-3073B390E8F9}"/>
-    <hyperlink ref="B322" r:id="rId296" xr:uid="{A8BFB3A4-426B-E646-BCF0-FE19C8CD07A9}"/>
-    <hyperlink ref="B323" r:id="rId297" xr:uid="{FBBA29BB-885B-744A-A644-58EDCA7B140A}"/>
-    <hyperlink ref="B324" r:id="rId298" xr:uid="{75411687-6884-AC42-8B4A-1348C4837365}"/>
-    <hyperlink ref="B325" r:id="rId299" xr:uid="{A89ED8DF-F678-FE43-808C-C190721379BF}"/>
-    <hyperlink ref="B326" r:id="rId300" xr:uid="{1516834D-F3B2-1743-8811-263E11BBDEF8}"/>
-    <hyperlink ref="B327" r:id="rId301" xr:uid="{1659AB91-08CA-E44D-988D-E9D9A746D406}"/>
-    <hyperlink ref="B328" r:id="rId302" xr:uid="{E844BC1D-9713-9F4D-B0A4-1124A9952D14}"/>
-    <hyperlink ref="B329" r:id="rId303" xr:uid="{DCE2AAEF-8D8E-1843-BFE9-E9B7E13854EB}"/>
-    <hyperlink ref="B330" r:id="rId304" xr:uid="{836B3BF0-7711-7D41-9E72-914C1871397F}"/>
-    <hyperlink ref="B331" r:id="rId305" xr:uid="{F450CF9B-CA59-1443-8163-13F1121DCF12}"/>
-    <hyperlink ref="B332" r:id="rId306" xr:uid="{1539C3E8-4854-3C4F-A7B3-55BF931F1E2A}"/>
-    <hyperlink ref="B333" r:id="rId307" xr:uid="{04F1FC5F-5DA1-0144-962D-B38C1C41F0F4}"/>
-    <hyperlink ref="B336" r:id="rId308" xr:uid="{B21618F4-70E2-C549-80B7-7CF915679E0A}"/>
-    <hyperlink ref="B337" r:id="rId309" xr:uid="{EEDFBF11-C1E4-0847-9D56-94A72D97AEE7}"/>
-    <hyperlink ref="B338" r:id="rId310" xr:uid="{F5C0EDF1-7EAC-8849-8D27-C3389913BFC6}"/>
-    <hyperlink ref="B339" r:id="rId311" xr:uid="{50175B29-124F-4E4E-8E98-961BD3320359}"/>
-    <hyperlink ref="B340" r:id="rId312" xr:uid="{1BE23822-8512-014F-9154-F6EDA4FC8428}"/>
-    <hyperlink ref="B341" r:id="rId313" xr:uid="{38EC228E-ABFF-3542-9CFB-3DDFC628E9D0}"/>
-    <hyperlink ref="B342" r:id="rId314" xr:uid="{73F240F8-C469-454E-BA5C-CFF2F7A7A5F6}"/>
-    <hyperlink ref="B343" r:id="rId315" xr:uid="{3BBD1BAC-68C7-A94A-9063-AF62B5C837FD}"/>
-    <hyperlink ref="B344" r:id="rId316" xr:uid="{F9751D9B-2689-E24B-9FC3-CA32FE888708}"/>
-    <hyperlink ref="B345" r:id="rId317" xr:uid="{73C61D6A-D97C-B944-8B27-BB91564AB0D7}"/>
-    <hyperlink ref="B346" r:id="rId318" xr:uid="{936E077C-C016-A04F-895A-782D6D9D9433}"/>
-    <hyperlink ref="B347" r:id="rId319" xr:uid="{5454A2A1-6607-BE48-9215-CB8965EC3568}"/>
-    <hyperlink ref="B348" r:id="rId320" xr:uid="{FC1EAA10-F7ED-6B42-A79B-3D8B44E2C8B3}"/>
-    <hyperlink ref="B349" r:id="rId321" xr:uid="{FDB7F712-4A42-1048-8929-A1E752B07C6A}"/>
-    <hyperlink ref="B350" r:id="rId322" xr:uid="{AF3ACA60-0B0E-E146-B51F-A2CD05EB6549}"/>
-    <hyperlink ref="B351" r:id="rId323" xr:uid="{BB63E040-7A1A-E046-9BDD-9CBD1DA89DE9}"/>
-    <hyperlink ref="B352" r:id="rId324" xr:uid="{9AF8FD93-CCC9-D540-AE9A-00583F309649}"/>
-    <hyperlink ref="B353" r:id="rId325" xr:uid="{66A746A0-71FE-E546-92B7-D1C3D582E067}"/>
-    <hyperlink ref="B357" r:id="rId326" xr:uid="{BD79CCE1-5315-3944-9F9B-618615EC4583}"/>
-    <hyperlink ref="B358" r:id="rId327" xr:uid="{A5068A51-C961-6847-BB27-40A850B6D393}"/>
-    <hyperlink ref="B359" r:id="rId328" xr:uid="{6B8D36F0-E796-B944-A456-E8A9E2EE0BDB}"/>
-    <hyperlink ref="B360" r:id="rId329" xr:uid="{776652B7-2C11-4641-BF6A-EABEEB9B55AB}"/>
-    <hyperlink ref="B361" r:id="rId330" xr:uid="{95C6B35D-712A-2343-B790-236B55C5EC49}"/>
-    <hyperlink ref="B362" r:id="rId331" xr:uid="{4ED53872-1FE9-F140-AA35-F228F762880B}"/>
-    <hyperlink ref="B363" r:id="rId332" xr:uid="{6D5E6A28-85AA-BF4C-B2BD-9378D6E28EC7}"/>
-    <hyperlink ref="B364" r:id="rId333" xr:uid="{BCAD1ECB-15EE-CF49-878E-AA682DE3AC22}"/>
-    <hyperlink ref="B365" r:id="rId334" xr:uid="{C85468B5-25E9-E446-808E-72CFE911F0C2}"/>
-    <hyperlink ref="B366" r:id="rId335" xr:uid="{9503AECA-1A6A-9640-A04C-4CEAA2304448}"/>
-    <hyperlink ref="B367" r:id="rId336" xr:uid="{74211516-06B0-AA45-845B-52C8202751DA}"/>
-    <hyperlink ref="B368" r:id="rId337" xr:uid="{02C696BC-4B91-9444-900F-9CD68E409ABC}"/>
-    <hyperlink ref="B369" r:id="rId338" xr:uid="{04646C45-4118-374C-839D-94D31D534FAC}"/>
-    <hyperlink ref="B370" r:id="rId339" xr:uid="{F90BCCAE-8596-FC4D-BDD7-774392C596DF}"/>
-    <hyperlink ref="B371" r:id="rId340" xr:uid="{65230925-36EC-8A4B-8E46-6350B9BC0F95}"/>
-    <hyperlink ref="B372" r:id="rId341" xr:uid="{E91B8177-0C7A-1F40-BD34-4CC60F03B84F}"/>
-    <hyperlink ref="B373" r:id="rId342" xr:uid="{E8CBFD60-7335-0B4D-9FF5-99B4A8DC551D}"/>
-    <hyperlink ref="B374" r:id="rId343" xr:uid="{A35F55D4-9B87-C745-94DB-E7D820193C30}"/>
-    <hyperlink ref="B375" r:id="rId344" xr:uid="{6461A29F-D404-334F-B13F-296B4CA5E8A4}"/>
-    <hyperlink ref="B376" r:id="rId345" xr:uid="{FA9B4BE7-85CC-B24F-9461-5E9B42DDD824}"/>
-    <hyperlink ref="B377" r:id="rId346" xr:uid="{A75ACEA2-CDF6-A147-8540-A6DF55B15F45}"/>
-    <hyperlink ref="B378" r:id="rId347" xr:uid="{62FF87E2-E658-AB4D-AC57-7BCF9D49516E}"/>
-    <hyperlink ref="B379" r:id="rId348" location=":~:text=Graph%20coloring%20problem%20is%20to,are%20colored%20using%20same%20color." xr:uid="{269338A6-5145-6944-9F7F-BD2A86DFA308}"/>
-    <hyperlink ref="B380" r:id="rId349" xr:uid="{8F583049-CE8D-CD42-88CD-CF3857942670}"/>
-    <hyperlink ref="B381" r:id="rId350" xr:uid="{EE2348AD-E296-894A-B5AE-5884A3C5E419}"/>
-    <hyperlink ref="B382" r:id="rId351" xr:uid="{6EACB34E-B32E-8F43-8055-2406F7417A7E}"/>
-    <hyperlink ref="B383" r:id="rId352" xr:uid="{2446F10A-B762-B64C-97B2-6131A0BECC1F}"/>
-    <hyperlink ref="B384" r:id="rId353" xr:uid="{6FDFCC53-17A6-7244-88A7-49406D7C9200}"/>
-    <hyperlink ref="B385" r:id="rId354" xr:uid="{3EC43646-EAB1-E443-A2F6-8E6E5FC77083}"/>
-    <hyperlink ref="B386" r:id="rId355" xr:uid="{659D9F20-C862-C947-B422-84143CFE317F}"/>
-    <hyperlink ref="B387" r:id="rId356" xr:uid="{3F5192FE-1C50-C049-88D5-68FA0F5430A0}"/>
-    <hyperlink ref="B388" r:id="rId357" xr:uid="{5EAD7CDA-9545-454B-BE77-9AFEC6AC1083}"/>
-    <hyperlink ref="B389" r:id="rId358" xr:uid="{761E5451-736B-6745-9CF5-4C6EF5D4C099}"/>
-    <hyperlink ref="B390" r:id="rId359" xr:uid="{4C8677A9-D94C-134F-AF31-E424751BF867}"/>
-    <hyperlink ref="B391" r:id="rId360" xr:uid="{CCF7920F-D5CE-004A-86C3-D821FB230970}"/>
-    <hyperlink ref="B392" r:id="rId361" xr:uid="{B4C07A0A-1EDD-7947-9646-3FD603441AD7}"/>
-    <hyperlink ref="B393" r:id="rId362" xr:uid="{49F7BB43-6851-0641-9DC5-27DBC66706F6}"/>
-    <hyperlink ref="B394" r:id="rId363" xr:uid="{77038647-48C7-5547-8E0F-898610362465}"/>
-    <hyperlink ref="B396" r:id="rId364" xr:uid="{EEFFE19C-6571-C64F-A0E1-5A4A700D94D4}"/>
-    <hyperlink ref="B395" r:id="rId365" xr:uid="{A4A2BFC4-6B88-2E4E-B362-17D8EE041C89}"/>
-    <hyperlink ref="B397" r:id="rId366" xr:uid="{DC5B603A-8D65-3648-A08A-E5FFA0FAE879}"/>
-    <hyperlink ref="B398" r:id="rId367" xr:uid="{F8807DD9-F4F2-B147-9C31-DBC93B2E477B}"/>
-    <hyperlink ref="B399" r:id="rId368" xr:uid="{6F7B396C-D7E9-C04E-BAE2-53D2EE07172B}"/>
-    <hyperlink ref="B402" r:id="rId369" xr:uid="{0D4A5941-C669-4A49-BAE3-9B553D03BD0F}"/>
-    <hyperlink ref="B403" r:id="rId370" xr:uid="{54144336-5BCA-D749-962A-E448C2CED3D3}"/>
-    <hyperlink ref="B404" r:id="rId371" xr:uid="{3A41DD21-CACF-1F48-A7C7-F568C6F31F3E}"/>
-    <hyperlink ref="B405" r:id="rId372" xr:uid="{A36160A8-F45E-3443-9645-42C1004B8F8C}"/>
-    <hyperlink ref="B406" r:id="rId373" xr:uid="{8B0A00A3-6AC0-DF46-AD87-A4DA016A2A00}"/>
-    <hyperlink ref="B407" r:id="rId374" xr:uid="{62A81CB4-A961-C543-B31C-92059DB6C105}"/>
-    <hyperlink ref="B410" r:id="rId375" xr:uid="{08030975-009C-C34A-A875-72FE2718F44C}"/>
-    <hyperlink ref="B411" r:id="rId376" xr:uid="{A113C7A9-2359-B643-9C08-E845813439C0}"/>
-    <hyperlink ref="B412" r:id="rId377" xr:uid="{FE300343-4633-AD47-A64D-2086629EB398}"/>
-    <hyperlink ref="B413" r:id="rId378" xr:uid="{4FC9F782-D38F-C642-A863-887B17AD05CD}"/>
-    <hyperlink ref="B414" r:id="rId379" xr:uid="{830C5466-10E3-7A48-B3E7-35C15A1CA4EF}"/>
-    <hyperlink ref="B415" r:id="rId380" xr:uid="{1B987077-E9D3-6F40-89EE-0D4E7180D884}"/>
-    <hyperlink ref="B416" r:id="rId381" xr:uid="{D4843E1F-7226-864E-A4BB-264D5A487B6D}"/>
-    <hyperlink ref="B417" r:id="rId382" xr:uid="{61816592-2D19-9946-8253-47A60218F2EA}"/>
-    <hyperlink ref="B418" r:id="rId383" xr:uid="{736C840F-19A3-0A4B-8863-ECB772B46385}"/>
-    <hyperlink ref="B419" r:id="rId384" xr:uid="{05A238AD-3C5B-C546-94E9-75BBF964711A}"/>
-    <hyperlink ref="B420" r:id="rId385" xr:uid="{7029629C-3F2A-4A49-997B-CFE86EC8B3C2}"/>
-    <hyperlink ref="B421" r:id="rId386" xr:uid="{ADA66B57-2FAC-AB42-BD83-4931708F3AB5}"/>
-    <hyperlink ref="B422" r:id="rId387" xr:uid="{F16BF1F9-755B-B045-B9A8-0B97E3BAC8B0}"/>
-    <hyperlink ref="B423" r:id="rId388" xr:uid="{ECCE930A-B960-234C-81EC-4B8514282AE9}"/>
-    <hyperlink ref="B424" r:id="rId389" xr:uid="{7AA58141-7D24-7C42-A0C1-F852B21CFFD9}"/>
-    <hyperlink ref="B425" r:id="rId390" xr:uid="{B1FCB47D-7921-3446-B2C7-72CBA815D056}"/>
-    <hyperlink ref="B426" r:id="rId391" xr:uid="{8C547719-AA03-3543-B31F-7300674AF4C5}"/>
-    <hyperlink ref="B427" r:id="rId392" xr:uid="{09922668-AFC0-F242-860E-9967E0F0FEF4}"/>
-    <hyperlink ref="B428" r:id="rId393" xr:uid="{0DA963DA-238B-D44E-9E03-6E6BD933B35E}"/>
-    <hyperlink ref="B429" r:id="rId394" xr:uid="{89518AFF-2526-C845-BC9D-95FE77AF416E}"/>
-    <hyperlink ref="B430" r:id="rId395" xr:uid="{FAECBBBE-196C-7A41-A0FB-E0597CB2CF51}"/>
-    <hyperlink ref="B431" r:id="rId396" xr:uid="{8126B039-0B25-B040-A0F6-C3457341A2E9}"/>
-    <hyperlink ref="B432" r:id="rId397" xr:uid="{6CB326E6-E698-EB42-884B-C89FFA33E3BA}"/>
-    <hyperlink ref="B433" r:id="rId398" xr:uid="{8C97EFD1-933F-A44F-A1CF-6386233104A2}"/>
-    <hyperlink ref="B434" r:id="rId399" xr:uid="{8F019F07-8532-E147-8BE1-4EBE833F61CA}"/>
-    <hyperlink ref="B435" r:id="rId400" xr:uid="{00F1A08F-3767-784A-97A3-4603DE38BACC}"/>
-    <hyperlink ref="B436" r:id="rId401" xr:uid="{2A84ADCB-071F-9A48-994D-7A838307EFD8}"/>
-    <hyperlink ref="B437" r:id="rId402" xr:uid="{132F8C6D-D5E8-6440-AC4E-B81EA2100416}"/>
-    <hyperlink ref="B438" r:id="rId403" xr:uid="{2DA6EAC2-1A1D-754F-9613-226CBC7890AF}"/>
-    <hyperlink ref="B439" r:id="rId404" xr:uid="{05BED99A-4562-D14E-8627-D07CF5335A9B}"/>
-    <hyperlink ref="B440" r:id="rId405" xr:uid="{111D902A-3F60-2D4B-89D3-5BCBD8AA38DD}"/>
-    <hyperlink ref="B441" r:id="rId406" xr:uid="{F19236BE-AC32-3542-9214-DFC3BAE04ED0}"/>
-    <hyperlink ref="B442" r:id="rId407" xr:uid="{4D97CD96-EA1B-664E-9380-EFD27077D273}"/>
-    <hyperlink ref="B443" r:id="rId408" xr:uid="{49A46D91-633F-A148-ACFA-49B7D1AA4B33}"/>
-    <hyperlink ref="B444" r:id="rId409" xr:uid="{7C3B7901-67E3-EA4D-BC64-21A78BC03AC6}"/>
-    <hyperlink ref="B445" r:id="rId410" xr:uid="{B27CA8C3-D34F-5E4D-94A5-11D14AFD0F82}"/>
-    <hyperlink ref="B446" r:id="rId411" xr:uid="{8FECE038-9764-5E4A-8C6E-9B3209812651}"/>
-    <hyperlink ref="B447" r:id="rId412" xr:uid="{95696D4B-89CB-5640-BE92-53B3C043F7EB}"/>
-    <hyperlink ref="B448" r:id="rId413" xr:uid="{DA74B737-802A-4944-A93E-0B9C8417630B}"/>
-    <hyperlink ref="B449" r:id="rId414" xr:uid="{B2C4C168-50FA-AF41-8F56-9E70613CF17D}"/>
-    <hyperlink ref="B451" r:id="rId415" xr:uid="{B7090C60-AC27-3F4F-8F0D-42F0791928C6}"/>
-    <hyperlink ref="B450" r:id="rId416" xr:uid="{07400041-66C6-514B-B3E3-427F2947C2B7}"/>
-    <hyperlink ref="B452" r:id="rId417" xr:uid="{B7E78172-8FB8-4E42-87D8-6A4654D79C62}"/>
-    <hyperlink ref="B453" r:id="rId418" xr:uid="{9A5D4670-BC64-334A-88CF-6F8287692C5E}"/>
-    <hyperlink ref="B454" r:id="rId419" xr:uid="{604283B6-53BC-044F-8D9D-E6094E798317}"/>
-    <hyperlink ref="B455" r:id="rId420" xr:uid="{5EB15AC7-3E0E-E44C-A5B9-32F30F234B5A}"/>
-    <hyperlink ref="B456" r:id="rId421" xr:uid="{3076BD5F-4B23-4146-A50A-499C9FF4C3D2}"/>
-    <hyperlink ref="B457" r:id="rId422" xr:uid="{6A29D9C2-1E78-1B43-A251-0AB0A97FA70E}"/>
-    <hyperlink ref="B458" r:id="rId423" xr:uid="{00597D5E-D693-DF4E-84C0-47E58A6ACA8F}"/>
-    <hyperlink ref="B459" r:id="rId424" xr:uid="{48640988-9964-0B4C-A014-83E2CEB3D632}"/>
-    <hyperlink ref="B460" r:id="rId425" xr:uid="{617AADC9-7534-FE45-96B0-EF4C1867B793}"/>
-    <hyperlink ref="B461" r:id="rId426" xr:uid="{7F8CDAA4-5094-8E4E-961B-41CDE5ACC0C0}"/>
-    <hyperlink ref="B462" r:id="rId427" xr:uid="{63F28ABD-12CF-5947-80DA-229E3CA3133E}"/>
-    <hyperlink ref="B469" r:id="rId428" xr:uid="{0A1DB92C-3315-1942-B27D-4B90986A6D9D}"/>
-    <hyperlink ref="B468" r:id="rId429" xr:uid="{11738B67-CADD-5D45-8417-8BE7A03FC79F}"/>
-    <hyperlink ref="B467" r:id="rId430" xr:uid="{B2B23748-D9E4-BE4F-A93E-49ECB4063831}"/>
-    <hyperlink ref="B466" r:id="rId431" xr:uid="{A2FB8A72-37B9-7E4A-B050-FD6CD20BCE73}"/>
-    <hyperlink ref="B465" r:id="rId432" xr:uid="{5A93C9AF-BFEB-EB40-95AC-C309ED09A604}"/>
-    <hyperlink ref="B464" r:id="rId433" xr:uid="{CC203923-2DC2-874B-B846-A8455E3CC2F2}"/>
-    <hyperlink ref="B463" r:id="rId434" xr:uid="{FCB0246E-0179-B447-B3CE-C60CDB388472}"/>
-    <hyperlink ref="B472" r:id="rId435" xr:uid="{F06CEE72-8CA4-C547-862C-39B86CD3226A}"/>
-    <hyperlink ref="B473" r:id="rId436" xr:uid="{CB3045F2-8D63-0F4E-85BC-AF016DB4F247}"/>
-    <hyperlink ref="B474" r:id="rId437" xr:uid="{667D57F5-E5AD-674F-A2F5-AFF4A14E4026}"/>
-    <hyperlink ref="B475" r:id="rId438" xr:uid="{27A13A65-56CE-BF4D-BA0D-EB87D910272D}"/>
-    <hyperlink ref="B476" r:id="rId439" xr:uid="{2C72A52E-6F06-0246-AEB5-93CD0DEA8866}"/>
-    <hyperlink ref="B477" r:id="rId440" xr:uid="{24B29046-B4DD-674B-9EDF-6C94BEC3FDD8}"/>
-    <hyperlink ref="B478" r:id="rId441" xr:uid="{D018EBC3-3FB3-AC4D-9D64-D218345A46C8}"/>
-    <hyperlink ref="B481" r:id="rId442" xr:uid="{1E1D3964-01E0-3145-ACFE-B6A5BF0EECB0}"/>
-    <hyperlink ref="B479" r:id="rId443" xr:uid="{FA0E5061-A7E2-C045-9671-1CD9446D1932}"/>
-    <hyperlink ref="B480" r:id="rId444" location=":~:text=Given%20an%20integer%20n%2C%20calculate,*%2C%20%2F%20and%20pow().&amp;text=A%20Simple%20Solution%20is%20to%20repeatedly%20add%20n%20to%20result." xr:uid="{92704F5B-7B31-2F42-80DD-764B2206D9DB}"/>
-    <hyperlink ref="B356" r:id="rId445" xr:uid="{A48B1A24-83B1-7A4C-8129-CD37804DF849}"/>
-    <hyperlink ref="B2" r:id="rId446" xr:uid="{E07D4FE5-46C7-AC4D-9E01-2300AA43B58A}"/>
+    <hyperlink ref="B322" r:id="rId295" xr:uid="{A8BFB3A4-426B-E646-BCF0-FE19C8CD07A9}"/>
+    <hyperlink ref="B323" r:id="rId296" xr:uid="{FBBA29BB-885B-744A-A644-58EDCA7B140A}"/>
+    <hyperlink ref="B324" r:id="rId297" xr:uid="{75411687-6884-AC42-8B4A-1348C4837365}"/>
+    <hyperlink ref="B325" r:id="rId298" xr:uid="{A89ED8DF-F678-FE43-808C-C190721379BF}"/>
+    <hyperlink ref="B326" r:id="rId299" xr:uid="{1516834D-F3B2-1743-8811-263E11BBDEF8}"/>
+    <hyperlink ref="B327" r:id="rId300" xr:uid="{1659AB91-08CA-E44D-988D-E9D9A746D406}"/>
+    <hyperlink ref="B328" r:id="rId301" xr:uid="{E844BC1D-9713-9F4D-B0A4-1124A9952D14}"/>
+    <hyperlink ref="B329" r:id="rId302" xr:uid="{DCE2AAEF-8D8E-1843-BFE9-E9B7E13854EB}"/>
+    <hyperlink ref="B330" r:id="rId303" xr:uid="{836B3BF0-7711-7D41-9E72-914C1871397F}"/>
+    <hyperlink ref="B331" r:id="rId304" xr:uid="{F450CF9B-CA59-1443-8163-13F1121DCF12}"/>
+    <hyperlink ref="B332" r:id="rId305" xr:uid="{1539C3E8-4854-3C4F-A7B3-55BF931F1E2A}"/>
+    <hyperlink ref="B333" r:id="rId306" xr:uid="{04F1FC5F-5DA1-0144-962D-B38C1C41F0F4}"/>
+    <hyperlink ref="B336" r:id="rId307" xr:uid="{B21618F4-70E2-C549-80B7-7CF915679E0A}"/>
+    <hyperlink ref="B337" r:id="rId308" xr:uid="{EEDFBF11-C1E4-0847-9D56-94A72D97AEE7}"/>
+    <hyperlink ref="B338" r:id="rId309" xr:uid="{F5C0EDF1-7EAC-8849-8D27-C3389913BFC6}"/>
+    <hyperlink ref="B339" r:id="rId310" xr:uid="{50175B29-124F-4E4E-8E98-961BD3320359}"/>
+    <hyperlink ref="B340" r:id="rId311" xr:uid="{1BE23822-8512-014F-9154-F6EDA4FC8428}"/>
+    <hyperlink ref="B341" r:id="rId312" xr:uid="{38EC228E-ABFF-3542-9CFB-3DDFC628E9D0}"/>
+    <hyperlink ref="B342" r:id="rId313" xr:uid="{73F240F8-C469-454E-BA5C-CFF2F7A7A5F6}"/>
+    <hyperlink ref="B343" r:id="rId314" xr:uid="{3BBD1BAC-68C7-A94A-9063-AF62B5C837FD}"/>
+    <hyperlink ref="B344" r:id="rId315" xr:uid="{F9751D9B-2689-E24B-9FC3-CA32FE888708}"/>
+    <hyperlink ref="B345" r:id="rId316" xr:uid="{73C61D6A-D97C-B944-8B27-BB91564AB0D7}"/>
+    <hyperlink ref="B346" r:id="rId317" xr:uid="{936E077C-C016-A04F-895A-782D6D9D9433}"/>
+    <hyperlink ref="B347" r:id="rId318" xr:uid="{5454A2A1-6607-BE48-9215-CB8965EC3568}"/>
+    <hyperlink ref="B348" r:id="rId319" xr:uid="{FC1EAA10-F7ED-6B42-A79B-3D8B44E2C8B3}"/>
+    <hyperlink ref="B349" r:id="rId320" xr:uid="{FDB7F712-4A42-1048-8929-A1E752B07C6A}"/>
+    <hyperlink ref="B350" r:id="rId321" xr:uid="{AF3ACA60-0B0E-E146-B51F-A2CD05EB6549}"/>
+    <hyperlink ref="B351" r:id="rId322" xr:uid="{BB63E040-7A1A-E046-9BDD-9CBD1DA89DE9}"/>
+    <hyperlink ref="B352" r:id="rId323" xr:uid="{9AF8FD93-CCC9-D540-AE9A-00583F309649}"/>
+    <hyperlink ref="B353" r:id="rId324" xr:uid="{66A746A0-71FE-E546-92B7-D1C3D582E067}"/>
+    <hyperlink ref="B357" r:id="rId325" xr:uid="{BD79CCE1-5315-3944-9F9B-618615EC4583}"/>
+    <hyperlink ref="B358" r:id="rId326" xr:uid="{A5068A51-C961-6847-BB27-40A850B6D393}"/>
+    <hyperlink ref="B359" r:id="rId327" xr:uid="{6B8D36F0-E796-B944-A456-E8A9E2EE0BDB}"/>
+    <hyperlink ref="B360" r:id="rId328" xr:uid="{776652B7-2C11-4641-BF6A-EABEEB9B55AB}"/>
+    <hyperlink ref="B361" r:id="rId329" xr:uid="{95C6B35D-712A-2343-B790-236B55C5EC49}"/>
+    <hyperlink ref="B362" r:id="rId330" xr:uid="{4ED53872-1FE9-F140-AA35-F228F762880B}"/>
+    <hyperlink ref="B363" r:id="rId331" xr:uid="{6D5E6A28-85AA-BF4C-B2BD-9378D6E28EC7}"/>
+    <hyperlink ref="B364" r:id="rId332" xr:uid="{BCAD1ECB-15EE-CF49-878E-AA682DE3AC22}"/>
+    <hyperlink ref="B365" r:id="rId333" xr:uid="{C85468B5-25E9-E446-808E-72CFE911F0C2}"/>
+    <hyperlink ref="B366" r:id="rId334" xr:uid="{9503AECA-1A6A-9640-A04C-4CEAA2304448}"/>
+    <hyperlink ref="B367" r:id="rId335" xr:uid="{74211516-06B0-AA45-845B-52C8202751DA}"/>
+    <hyperlink ref="B368" r:id="rId336" xr:uid="{02C696BC-4B91-9444-900F-9CD68E409ABC}"/>
+    <hyperlink ref="B369" r:id="rId337" xr:uid="{04646C45-4118-374C-839D-94D31D534FAC}"/>
+    <hyperlink ref="B370" r:id="rId338" xr:uid="{F90BCCAE-8596-FC4D-BDD7-774392C596DF}"/>
+    <hyperlink ref="B371" r:id="rId339" xr:uid="{65230925-36EC-8A4B-8E46-6350B9BC0F95}"/>
+    <hyperlink ref="B372" r:id="rId340" xr:uid="{E91B8177-0C7A-1F40-BD34-4CC60F03B84F}"/>
+    <hyperlink ref="B373" r:id="rId341" xr:uid="{E8CBFD60-7335-0B4D-9FF5-99B4A8DC551D}"/>
+    <hyperlink ref="B374" r:id="rId342" xr:uid="{A35F55D4-9B87-C745-94DB-E7D820193C30}"/>
+    <hyperlink ref="B375" r:id="rId343" xr:uid="{6461A29F-D404-334F-B13F-296B4CA5E8A4}"/>
+    <hyperlink ref="B376" r:id="rId344" xr:uid="{FA9B4BE7-85CC-B24F-9461-5E9B42DDD824}"/>
+    <hyperlink ref="B377" r:id="rId345" xr:uid="{A75ACEA2-CDF6-A147-8540-A6DF55B15F45}"/>
+    <hyperlink ref="B378" r:id="rId346" xr:uid="{62FF87E2-E658-AB4D-AC57-7BCF9D49516E}"/>
+    <hyperlink ref="B379" r:id="rId347" location=":~:text=Graph%20coloring%20problem%20is%20to,are%20colored%20using%20same%20color." xr:uid="{269338A6-5145-6944-9F7F-BD2A86DFA308}"/>
+    <hyperlink ref="B380" r:id="rId348" xr:uid="{8F583049-CE8D-CD42-88CD-CF3857942670}"/>
+    <hyperlink ref="B381" r:id="rId349" xr:uid="{EE2348AD-E296-894A-B5AE-5884A3C5E419}"/>
+    <hyperlink ref="B382" r:id="rId350" xr:uid="{6EACB34E-B32E-8F43-8055-2406F7417A7E}"/>
+    <hyperlink ref="B383" r:id="rId351" xr:uid="{2446F10A-B762-B64C-97B2-6131A0BECC1F}"/>
+    <hyperlink ref="B384" r:id="rId352" xr:uid="{6FDFCC53-17A6-7244-88A7-49406D7C9200}"/>
+    <hyperlink ref="B385" r:id="rId353" xr:uid="{3EC43646-EAB1-E443-A2F6-8E6E5FC77083}"/>
+    <hyperlink ref="B386" r:id="rId354" xr:uid="{659D9F20-C862-C947-B422-84143CFE317F}"/>
+    <hyperlink ref="B387" r:id="rId355" xr:uid="{3F5192FE-1C50-C049-88D5-68FA0F5430A0}"/>
+    <hyperlink ref="B388" r:id="rId356" xr:uid="{5EAD7CDA-9545-454B-BE77-9AFEC6AC1083}"/>
+    <hyperlink ref="B389" r:id="rId357" xr:uid="{761E5451-736B-6745-9CF5-4C6EF5D4C099}"/>
+    <hyperlink ref="B390" r:id="rId358" xr:uid="{4C8677A9-D94C-134F-AF31-E424751BF867}"/>
+    <hyperlink ref="B391" r:id="rId359" xr:uid="{CCF7920F-D5CE-004A-86C3-D821FB230970}"/>
+    <hyperlink ref="B392" r:id="rId360" xr:uid="{B4C07A0A-1EDD-7947-9646-3FD603441AD7}"/>
+    <hyperlink ref="B393" r:id="rId361" xr:uid="{49F7BB43-6851-0641-9DC5-27DBC66706F6}"/>
+    <hyperlink ref="B394" r:id="rId362" xr:uid="{77038647-48C7-5547-8E0F-898610362465}"/>
+    <hyperlink ref="B396" r:id="rId363" xr:uid="{EEFFE19C-6571-C64F-A0E1-5A4A700D94D4}"/>
+    <hyperlink ref="B395" r:id="rId364" xr:uid="{A4A2BFC4-6B88-2E4E-B362-17D8EE041C89}"/>
+    <hyperlink ref="B397" r:id="rId365" xr:uid="{DC5B603A-8D65-3648-A08A-E5FFA0FAE879}"/>
+    <hyperlink ref="B398" r:id="rId366" xr:uid="{F8807DD9-F4F2-B147-9C31-DBC93B2E477B}"/>
+    <hyperlink ref="B399" r:id="rId367" xr:uid="{6F7B396C-D7E9-C04E-BAE2-53D2EE07172B}"/>
+    <hyperlink ref="B402" r:id="rId368" xr:uid="{0D4A5941-C669-4A49-BAE3-9B553D03BD0F}"/>
+    <hyperlink ref="B403" r:id="rId369" xr:uid="{54144336-5BCA-D749-962A-E448C2CED3D3}"/>
+    <hyperlink ref="B404" r:id="rId370" xr:uid="{3A41DD21-CACF-1F48-A7C7-F568C6F31F3E}"/>
+    <hyperlink ref="B405" r:id="rId371" xr:uid="{A36160A8-F45E-3443-9645-42C1004B8F8C}"/>
+    <hyperlink ref="B406" r:id="rId372" xr:uid="{8B0A00A3-6AC0-DF46-AD87-A4DA016A2A00}"/>
+    <hyperlink ref="B407" r:id="rId373" xr:uid="{62A81CB4-A961-C543-B31C-92059DB6C105}"/>
+    <hyperlink ref="B410" r:id="rId374" xr:uid="{08030975-009C-C34A-A875-72FE2718F44C}"/>
+    <hyperlink ref="B411" r:id="rId375" xr:uid="{A113C7A9-2359-B643-9C08-E845813439C0}"/>
+    <hyperlink ref="B412" r:id="rId376" xr:uid="{FE300343-4633-AD47-A64D-2086629EB398}"/>
+    <hyperlink ref="B413" r:id="rId377" xr:uid="{4FC9F782-D38F-C642-A863-887B17AD05CD}"/>
+    <hyperlink ref="B414" r:id="rId378" xr:uid="{830C5466-10E3-7A48-B3E7-35C15A1CA4EF}"/>
+    <hyperlink ref="B415" r:id="rId379" xr:uid="{1B987077-E9D3-6F40-89EE-0D4E7180D884}"/>
+    <hyperlink ref="B416" r:id="rId380" xr:uid="{D4843E1F-7226-864E-A4BB-264D5A487B6D}"/>
+    <hyperlink ref="B417" r:id="rId381" xr:uid="{61816592-2D19-9946-8253-47A60218F2EA}"/>
+    <hyperlink ref="B418" r:id="rId382" xr:uid="{736C840F-19A3-0A4B-8863-ECB772B46385}"/>
+    <hyperlink ref="B419" r:id="rId383" xr:uid="{05A238AD-3C5B-C546-94E9-75BBF964711A}"/>
+    <hyperlink ref="B420" r:id="rId384" xr:uid="{7029629C-3F2A-4A49-997B-CFE86EC8B3C2}"/>
+    <hyperlink ref="B421" r:id="rId385" xr:uid="{ADA66B57-2FAC-AB42-BD83-4931708F3AB5}"/>
+    <hyperlink ref="B422" r:id="rId386" xr:uid="{F16BF1F9-755B-B045-B9A8-0B97E3BAC8B0}"/>
+    <hyperlink ref="B423" r:id="rId387" xr:uid="{ECCE930A-B960-234C-81EC-4B8514282AE9}"/>
+    <hyperlink ref="B424" r:id="rId388" xr:uid="{7AA58141-7D24-7C42-A0C1-F852B21CFFD9}"/>
+    <hyperlink ref="B425" r:id="rId389" xr:uid="{B1FCB47D-7921-3446-B2C7-72CBA815D056}"/>
+    <hyperlink ref="B426" r:id="rId390" xr:uid="{8C547719-AA03-3543-B31F-7300674AF4C5}"/>
+    <hyperlink ref="B427" r:id="rId391" xr:uid="{09922668-AFC0-F242-860E-9967E0F0FEF4}"/>
+    <hyperlink ref="B428" r:id="rId392" xr:uid="{0DA963DA-238B-D44E-9E03-6E6BD933B35E}"/>
+    <hyperlink ref="B429" r:id="rId393" xr:uid="{89518AFF-2526-C845-BC9D-95FE77AF416E}"/>
+    <hyperlink ref="B430" r:id="rId394" xr:uid="{FAECBBBE-196C-7A41-A0FB-E0597CB2CF51}"/>
+    <hyperlink ref="B431" r:id="rId395" xr:uid="{8126B039-0B25-B040-A0F6-C3457341A2E9}"/>
+    <hyperlink ref="B432" r:id="rId396" xr:uid="{6CB326E6-E698-EB42-884B-C89FFA33E3BA}"/>
+    <hyperlink ref="B433" r:id="rId397" xr:uid="{8C97EFD1-933F-A44F-A1CF-6386233104A2}"/>
+    <hyperlink ref="B434" r:id="rId398" xr:uid="{8F019F07-8532-E147-8BE1-4EBE833F61CA}"/>
+    <hyperlink ref="B435" r:id="rId399" xr:uid="{00F1A08F-3767-784A-97A3-4603DE38BACC}"/>
+    <hyperlink ref="B436" r:id="rId400" xr:uid="{2A84ADCB-071F-9A48-994D-7A838307EFD8}"/>
+    <hyperlink ref="B437" r:id="rId401" xr:uid="{132F8C6D-D5E8-6440-AC4E-B81EA2100416}"/>
+    <hyperlink ref="B438" r:id="rId402" xr:uid="{2DA6EAC2-1A1D-754F-9613-226CBC7890AF}"/>
+    <hyperlink ref="B439" r:id="rId403" xr:uid="{05BED99A-4562-D14E-8627-D07CF5335A9B}"/>
+    <hyperlink ref="B440" r:id="rId404" xr:uid="{111D902A-3F60-2D4B-89D3-5BCBD8AA38DD}"/>
+    <hyperlink ref="B441" r:id="rId405" xr:uid="{F19236BE-AC32-3542-9214-DFC3BAE04ED0}"/>
+    <hyperlink ref="B442" r:id="rId406" xr:uid="{4D97CD96-EA1B-664E-9380-EFD27077D273}"/>
+    <hyperlink ref="B443" r:id="rId407" xr:uid="{49A46D91-633F-A148-ACFA-49B7D1AA4B33}"/>
+    <hyperlink ref="B444" r:id="rId408" xr:uid="{7C3B7901-67E3-EA4D-BC64-21A78BC03AC6}"/>
+    <hyperlink ref="B445" r:id="rId409" xr:uid="{B27CA8C3-D34F-5E4D-94A5-11D14AFD0F82}"/>
+    <hyperlink ref="B446" r:id="rId410" xr:uid="{8FECE038-9764-5E4A-8C6E-9B3209812651}"/>
+    <hyperlink ref="B447" r:id="rId411" xr:uid="{95696D4B-89CB-5640-BE92-53B3C043F7EB}"/>
+    <hyperlink ref="B448" r:id="rId412" xr:uid="{DA74B737-802A-4944-A93E-0B9C8417630B}"/>
+    <hyperlink ref="B449" r:id="rId413" xr:uid="{B2C4C168-50FA-AF41-8F56-9E70613CF17D}"/>
+    <hyperlink ref="B451" r:id="rId414" xr:uid="{B7090C60-AC27-3F4F-8F0D-42F0791928C6}"/>
+    <hyperlink ref="B450" r:id="rId415" xr:uid="{07400041-66C6-514B-B3E3-427F2947C2B7}"/>
+    <hyperlink ref="B452" r:id="rId416" xr:uid="{B7E78172-8FB8-4E42-87D8-6A4654D79C62}"/>
+    <hyperlink ref="B453" r:id="rId417" xr:uid="{9A5D4670-BC64-334A-88CF-6F8287692C5E}"/>
+    <hyperlink ref="B454" r:id="rId418" xr:uid="{604283B6-53BC-044F-8D9D-E6094E798317}"/>
+    <hyperlink ref="B455" r:id="rId419" xr:uid="{5EB15AC7-3E0E-E44C-A5B9-32F30F234B5A}"/>
+    <hyperlink ref="B456" r:id="rId420" xr:uid="{3076BD5F-4B23-4146-A50A-499C9FF4C3D2}"/>
+    <hyperlink ref="B457" r:id="rId421" xr:uid="{6A29D9C2-1E78-1B43-A251-0AB0A97FA70E}"/>
+    <hyperlink ref="B458" r:id="rId422" xr:uid="{00597D5E-D693-DF4E-84C0-47E58A6ACA8F}"/>
+    <hyperlink ref="B459" r:id="rId423" xr:uid="{48640988-9964-0B4C-A014-83E2CEB3D632}"/>
+    <hyperlink ref="B460" r:id="rId424" xr:uid="{617AADC9-7534-FE45-96B0-EF4C1867B793}"/>
+    <hyperlink ref="B461" r:id="rId425" xr:uid="{7F8CDAA4-5094-8E4E-961B-41CDE5ACC0C0}"/>
+    <hyperlink ref="B462" r:id="rId426" xr:uid="{63F28ABD-12CF-5947-80DA-229E3CA3133E}"/>
+    <hyperlink ref="B469" r:id="rId427" xr:uid="{0A1DB92C-3315-1942-B27D-4B90986A6D9D}"/>
+    <hyperlink ref="B468" r:id="rId428" xr:uid="{11738B67-CADD-5D45-8417-8BE7A03FC79F}"/>
+    <hyperlink ref="B467" r:id="rId429" xr:uid="{B2B23748-D9E4-BE4F-A93E-49ECB4063831}"/>
+    <hyperlink ref="B466" r:id="rId430" xr:uid="{A2FB8A72-37B9-7E4A-B050-FD6CD20BCE73}"/>
+    <hyperlink ref="B465" r:id="rId431" xr:uid="{5A93C9AF-BFEB-EB40-95AC-C309ED09A604}"/>
+    <hyperlink ref="B464" r:id="rId432" xr:uid="{CC203923-2DC2-874B-B846-A8455E3CC2F2}"/>
+    <hyperlink ref="B463" r:id="rId433" xr:uid="{FCB0246E-0179-B447-B3CE-C60CDB388472}"/>
+    <hyperlink ref="B472" r:id="rId434" xr:uid="{F06CEE72-8CA4-C547-862C-39B86CD3226A}"/>
+    <hyperlink ref="B473" r:id="rId435" xr:uid="{CB3045F2-8D63-0F4E-85BC-AF016DB4F247}"/>
+    <hyperlink ref="B474" r:id="rId436" xr:uid="{667D57F5-E5AD-674F-A2F5-AFF4A14E4026}"/>
+    <hyperlink ref="B475" r:id="rId437" xr:uid="{27A13A65-56CE-BF4D-BA0D-EB87D910272D}"/>
+    <hyperlink ref="B476" r:id="rId438" xr:uid="{2C72A52E-6F06-0246-AEB5-93CD0DEA8866}"/>
+    <hyperlink ref="B477" r:id="rId439" xr:uid="{24B29046-B4DD-674B-9EDF-6C94BEC3FDD8}"/>
+    <hyperlink ref="B478" r:id="rId440" xr:uid="{D018EBC3-3FB3-AC4D-9D64-D218345A46C8}"/>
+    <hyperlink ref="B481" r:id="rId441" xr:uid="{1E1D3964-01E0-3145-ACFE-B6A5BF0EECB0}"/>
+    <hyperlink ref="B479" r:id="rId442" xr:uid="{FA0E5061-A7E2-C045-9671-1CD9446D1932}"/>
+    <hyperlink ref="B480" r:id="rId443" location=":~:text=Given%20an%20integer%20n%2C%20calculate,*%2C%20%2F%20and%20pow().&amp;text=A%20Simple%20Solution%20is%20to%20repeatedly%20add%20n%20to%20result." xr:uid="{92704F5B-7B31-2F42-80DD-764B2206D9DB}"/>
+    <hyperlink ref="B356" r:id="rId444" xr:uid="{A48B1A24-83B1-7A4C-8129-CD37804DF849}"/>
+    <hyperlink ref="B2" r:id="rId445" xr:uid="{E07D4FE5-46C7-AC4D-9E01-2300AA43B58A}"/>
+    <hyperlink ref="B321" r:id="rId446" xr:uid="{1904F984-5B22-8D46-BC33-3073B390E8F9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ROHIT\Desktop\lovebabbardsaSheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAFAA6D7-D3D5-40FB-B613-B5B98AC869AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33530C61-5064-46BC-BFBE-20669F96D144}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1854,8 +1854,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A312" workbookViewId="0">
-      <selection activeCell="B321" sqref="B321"/>
+    <sheetView tabSelected="1" topLeftCell="A305" workbookViewId="0">
+      <selection activeCell="C312" sqref="C312"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -5132,7 +5132,7 @@
         <v>302</v>
       </c>
       <c r="C312" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="313" spans="1:3" ht="21">
@@ -5143,7 +5143,7 @@
         <v>303</v>
       </c>
       <c r="C313" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="314" spans="1:3" ht="21">
@@ -5154,7 +5154,7 @@
         <v>304</v>
       </c>
       <c r="C314" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="315" spans="1:3" ht="21">
@@ -5165,7 +5165,7 @@
         <v>305</v>
       </c>
       <c r="C315" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="316" spans="1:3" ht="21">
@@ -5176,7 +5176,7 @@
         <v>306</v>
       </c>
       <c r="C316" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="317" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ROHIT\Desktop\lovebabbardsaSheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33530C61-5064-46BC-BFBE-20669F96D144}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAD9FB69-42AF-4B63-A5BE-5C1D0F5DB3FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1854,8 +1854,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A305" workbookViewId="0">
-      <selection activeCell="C312" sqref="C312"/>
+    <sheetView tabSelected="1" topLeftCell="A320" workbookViewId="0">
+      <selection activeCell="C327" sqref="C327"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -5264,7 +5264,7 @@
         <v>314</v>
       </c>
       <c r="C324" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="325" spans="1:3" ht="21">
@@ -5275,7 +5275,7 @@
         <v>315</v>
       </c>
       <c r="C325" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="326" spans="1:3" ht="21">
@@ -5286,7 +5286,7 @@
         <v>316</v>
       </c>
       <c r="C326" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="327" spans="1:3" ht="21">
@@ -5297,7 +5297,7 @@
         <v>317</v>
       </c>
       <c r="C327" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="328" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ROHIT\Desktop\lovebabbardsaSheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAD9FB69-42AF-4B63-A5BE-5C1D0F5DB3FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A85FF463-30C3-479A-A573-4D6E5B193B0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1854,8 +1854,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A320" workbookViewId="0">
-      <selection activeCell="C327" sqref="C327"/>
+    <sheetView tabSelected="1" topLeftCell="A299" workbookViewId="0">
+      <selection activeCell="C317" sqref="C317"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -4956,7 +4956,7 @@
         <v>286</v>
       </c>
       <c r="C296" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="297" spans="1:3" ht="21">
@@ -4967,7 +4967,7 @@
         <v>287</v>
       </c>
       <c r="C297" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="298" spans="1:3" ht="21">
@@ -4978,7 +4978,7 @@
         <v>288</v>
       </c>
       <c r="C298" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="299" spans="1:3" ht="21">
@@ -4989,7 +4989,7 @@
         <v>289</v>
       </c>
       <c r="C299" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="300" spans="1:3" ht="21">
@@ -5187,7 +5187,7 @@
         <v>307</v>
       </c>
       <c r="C317" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="318" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ROHIT\Desktop\lovebabbardsaSheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A85FF463-30C3-479A-A573-4D6E5B193B0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1765753F-8ED9-49CA-9DE4-E1643BDEE760}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1855,7 +1855,7 @@
   <dimension ref="A1:C481"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A299" workbookViewId="0">
-      <selection activeCell="C317" sqref="C317"/>
+      <selection activeCell="C307" sqref="C307"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -5033,7 +5033,7 @@
         <v>293</v>
       </c>
       <c r="C303" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="304" spans="1:3" ht="21">
@@ -5044,7 +5044,7 @@
         <v>294</v>
       </c>
       <c r="C304" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="305" spans="1:3" ht="21">
@@ -5055,7 +5055,7 @@
         <v>295</v>
       </c>
       <c r="C305" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="306" spans="1:3" ht="21">
@@ -5066,7 +5066,7 @@
         <v>296</v>
       </c>
       <c r="C306" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="307" spans="1:3" ht="21">
@@ -5077,7 +5077,7 @@
         <v>297</v>
       </c>
       <c r="C307" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="308" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ROHIT\Desktop\lovebabbardsaSheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1765753F-8ED9-49CA-9DE4-E1643BDEE760}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA421257-3FA2-409C-9B9C-CC9B710CD35D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1349" uniqueCount="466">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1344" uniqueCount="466">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1854,8 +1854,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A299" workbookViewId="0">
-      <selection activeCell="C307" sqref="C307"/>
+    <sheetView tabSelected="1" topLeftCell="A425" workbookViewId="0">
+      <selection activeCell="C410" sqref="C410"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -5381,9 +5381,7 @@
       <c r="B336" s="6" t="s">
         <v>325</v>
       </c>
-      <c r="C336" s="4" t="s">
-        <v>4</v>
-      </c>
+      <c r="C336" s="4"/>
     </row>
     <row r="337" spans="1:3" ht="21">
       <c r="A337" s="8" t="s">
@@ -5392,9 +5390,7 @@
       <c r="B337" s="6" t="s">
         <v>326</v>
       </c>
-      <c r="C337" s="4" t="s">
-        <v>4</v>
-      </c>
+      <c r="C337" s="4"/>
     </row>
     <row r="338" spans="1:3" ht="21">
       <c r="A338" s="8" t="s">
@@ -5403,9 +5399,7 @@
       <c r="B338" s="6" t="s">
         <v>327</v>
       </c>
-      <c r="C338" s="4" t="s">
-        <v>4</v>
-      </c>
+      <c r="C338" s="4"/>
     </row>
     <row r="339" spans="1:3" ht="21">
       <c r="A339" s="8" t="s">
@@ -5414,9 +5408,7 @@
       <c r="B339" s="6" t="s">
         <v>328</v>
       </c>
-      <c r="C339" s="4" t="s">
-        <v>4</v>
-      </c>
+      <c r="C339" s="4"/>
     </row>
     <row r="340" spans="1:3" ht="21">
       <c r="A340" s="8" t="s">
@@ -5425,9 +5417,7 @@
       <c r="B340" s="6" t="s">
         <v>329</v>
       </c>
-      <c r="C340" s="4" t="s">
-        <v>4</v>
-      </c>
+      <c r="C340" s="4"/>
     </row>
     <row r="341" spans="1:3" ht="21">
       <c r="A341" s="8" t="s">
@@ -6148,7 +6138,7 @@
         <v>394</v>
       </c>
       <c r="C410" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="411" spans="1:3" ht="21">
@@ -6203,7 +6193,7 @@
         <v>399</v>
       </c>
       <c r="C415" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="416" spans="1:3" ht="21">
@@ -6247,7 +6237,7 @@
         <v>402</v>
       </c>
       <c r="C419" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="420" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ROHIT\Desktop\lovebabbardsaSheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA421257-3FA2-409C-9B9C-CC9B710CD35D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD6887CB-201A-45C5-957C-3E68CEB19AFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1854,8 +1854,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A425" workbookViewId="0">
-      <selection activeCell="C410" sqref="C410"/>
+    <sheetView tabSelected="1" topLeftCell="A396" workbookViewId="0">
+      <selection activeCell="C405" sqref="C405"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -6064,7 +6064,7 @@
         <v>388</v>
       </c>
       <c r="C402" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="403" spans="1:3" ht="21">
@@ -6075,7 +6075,7 @@
         <v>389</v>
       </c>
       <c r="C403" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="404" spans="1:3" ht="21">
@@ -6086,7 +6086,7 @@
         <v>390</v>
       </c>
       <c r="C404" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="405" spans="1:3" ht="21">
@@ -6097,7 +6097,7 @@
         <v>89</v>
       </c>
       <c r="C405" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="406" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ROHIT\Desktop\lovebabbardsaSheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD6887CB-201A-45C5-957C-3E68CEB19AFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6ECAD06-F664-43B8-8796-6FAB9E338D5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1344" uniqueCount="466">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1344" uniqueCount="467">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1423,6 +1423,9 @@
   </si>
   <si>
     <t>yes</t>
+  </si>
+  <si>
+    <t>yees</t>
   </si>
 </sst>
 </file>
@@ -1854,8 +1857,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A396" workbookViewId="0">
-      <selection activeCell="C405" sqref="C405"/>
+    <sheetView tabSelected="1" topLeftCell="A218" workbookViewId="0">
+      <selection activeCell="C235" sqref="C235"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -4283,7 +4286,7 @@
         <v>225</v>
       </c>
       <c r="C231" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="232" spans="1:3" ht="21">
@@ -4294,7 +4297,7 @@
         <v>226</v>
       </c>
       <c r="C232" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="233" spans="1:3" ht="21">
@@ -4305,7 +4308,7 @@
         <v>227</v>
       </c>
       <c r="C233" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="234" spans="1:3" ht="21">
@@ -4316,7 +4319,7 @@
         <v>228</v>
       </c>
       <c r="C234" s="4" t="s">
-        <v>4</v>
+        <v>466</v>
       </c>
     </row>
     <row r="235" spans="1:3" ht="21">
@@ -4327,7 +4330,7 @@
         <v>229</v>
       </c>
       <c r="C235" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="236" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ROHIT\Desktop\lovebabbardsaSheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6ECAD06-F664-43B8-8796-6FAB9E338D5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A42CD794-5A82-4F5E-85FA-E3B4D2D22D0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1857,8 +1857,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A218" workbookViewId="0">
-      <selection activeCell="C235" sqref="C235"/>
+    <sheetView tabSelected="1" topLeftCell="A172" workbookViewId="0">
+      <selection activeCell="C177" sqref="C177"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -3704,7 +3704,7 @@
         <v>172</v>
       </c>
       <c r="C177" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="178" spans="1:3" ht="21">
@@ -3715,7 +3715,7 @@
         <v>173</v>
       </c>
       <c r="C178" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="179" spans="1:3" ht="21">
@@ -3726,7 +3726,7 @@
         <v>174</v>
       </c>
       <c r="C179" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="180" spans="1:3" ht="21">
@@ -3737,7 +3737,7 @@
         <v>175</v>
       </c>
       <c r="C180" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="181" spans="1:3" ht="21">
@@ -3748,7 +3748,7 @@
         <v>176</v>
       </c>
       <c r="C181" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="182" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ROHIT\Desktop\lovebabbardsaSheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A42CD794-5A82-4F5E-85FA-E3B4D2D22D0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12B581E7-27CC-4A79-9A1C-0C4A8E5C11F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1858,7 +1858,7 @@
   <dimension ref="A1:C481"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A172" workbookViewId="0">
-      <selection activeCell="C177" sqref="C177"/>
+      <selection activeCell="B184" sqref="B184"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -3759,7 +3759,7 @@
         <v>177</v>
       </c>
       <c r="C182" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="183" spans="1:3" ht="21">
@@ -3770,7 +3770,7 @@
         <v>178</v>
       </c>
       <c r="C183" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="184" spans="1:3" ht="21">
@@ -3781,7 +3781,7 @@
         <v>179</v>
       </c>
       <c r="C184" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="185" spans="1:3" ht="21">
@@ -3836,7 +3836,7 @@
         <v>184</v>
       </c>
       <c r="C189" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="190" spans="1:3" ht="21">
@@ -3847,7 +3847,7 @@
         <v>185</v>
       </c>
       <c r="C190" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="191" spans="1:3" ht="21">
@@ -3858,7 +3858,7 @@
         <v>186</v>
       </c>
       <c r="C191" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="192" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ROHIT\Desktop\lovebabbardsaSheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12B581E7-27CC-4A79-9A1C-0C4A8E5C11F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37B55261-D3B3-45EA-90F8-3A3D738B6694}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1857,8 +1857,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A172" workbookViewId="0">
-      <selection activeCell="B184" sqref="B184"/>
+    <sheetView tabSelected="1" topLeftCell="A196" workbookViewId="0">
+      <selection activeCell="C200" sqref="C200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -3957,7 +3957,7 @@
         <v>195</v>
       </c>
       <c r="C200" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="201" spans="1:3" ht="21">
@@ -3968,7 +3968,7 @@
         <v>196</v>
       </c>
       <c r="C201" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="202" spans="1:3" ht="21">
@@ -3979,7 +3979,7 @@
         <v>197</v>
       </c>
       <c r="C202" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="203" spans="1:3" ht="21">
@@ -3990,7 +3990,7 @@
         <v>198</v>
       </c>
       <c r="C203" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="204" spans="1:3" ht="21">
@@ -4001,7 +4001,7 @@
         <v>199</v>
       </c>
       <c r="C204" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="205" spans="1:3" ht="21">
@@ -4012,7 +4012,7 @@
         <v>200</v>
       </c>
       <c r="C205" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="206" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ROHIT\Desktop\lovebabbardsaSheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37B55261-D3B3-45EA-90F8-3A3D738B6694}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB517142-56CC-425B-AADB-72066214DA4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1857,8 +1857,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A196" workbookViewId="0">
-      <selection activeCell="C200" sqref="C200"/>
+    <sheetView tabSelected="1" topLeftCell="A209" workbookViewId="0">
+      <selection activeCell="C217" sqref="C217"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -4132,7 +4132,7 @@
         <v>211</v>
       </c>
       <c r="C217" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="218" spans="1:3" ht="21">
@@ -4154,7 +4154,7 @@
         <v>213</v>
       </c>
       <c r="C219" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="220" spans="1:3" ht="21">
@@ -4165,7 +4165,7 @@
         <v>214</v>
       </c>
       <c r="C220" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="221" spans="1:3" ht="21">
@@ -4176,7 +4176,7 @@
         <v>215</v>
       </c>
       <c r="C221" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="222" spans="1:3" ht="21">
@@ -4187,7 +4187,7 @@
         <v>216</v>
       </c>
       <c r="C222" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="223" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ROHIT\Desktop\lovebabbardsaSheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB517142-56CC-425B-AADB-72066214DA4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1428635B-99BB-414D-BE21-42003E388DC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1857,8 +1857,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A209" workbookViewId="0">
-      <selection activeCell="C217" sqref="C217"/>
+    <sheetView tabSelected="1" topLeftCell="A156" workbookViewId="0">
+      <selection activeCell="B167" sqref="B167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -3557,7 +3557,7 @@
         <v>158</v>
       </c>
       <c r="C162" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="163" spans="1:3" ht="21">
@@ -3568,7 +3568,7 @@
         <v>159</v>
       </c>
       <c r="C163" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="164" spans="1:3" ht="21">
@@ -3601,7 +3601,7 @@
         <v>162</v>
       </c>
       <c r="C166" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="167" spans="1:3" ht="21">
@@ -3623,7 +3623,7 @@
         <v>164</v>
       </c>
       <c r="C168" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="169" spans="1:3" ht="21">
@@ -3634,7 +3634,7 @@
         <v>165</v>
       </c>
       <c r="C169" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="170" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ROHIT\Desktop\lovebabbardsaSheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1428635B-99BB-414D-BE21-42003E388DC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE462BAB-F03C-4BE4-8EC8-51688303B361}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1857,8 +1857,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A156" workbookViewId="0">
-      <selection activeCell="B167" sqref="B167"/>
+    <sheetView tabSelected="1" topLeftCell="A143" workbookViewId="0">
+      <selection activeCell="C149" sqref="C149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -3414,7 +3414,7 @@
         <v>145</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="150" spans="1:3" ht="21">
@@ -3425,7 +3425,7 @@
         <v>146</v>
       </c>
       <c r="C150" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="151" spans="1:3" ht="21">
@@ -3436,7 +3436,7 @@
         <v>147</v>
       </c>
       <c r="C151" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="152" spans="1:3" ht="21">
@@ -3447,7 +3447,7 @@
         <v>148</v>
       </c>
       <c r="C152" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="153" spans="1:3" ht="21">
@@ -3458,7 +3458,7 @@
         <v>149</v>
       </c>
       <c r="C153" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="154" spans="1:3" ht="21">
